--- a/storage/app/public/excel/database/users.xlsx
+++ b/storage/app/public/excel/database/users.xlsx
@@ -1,120 +1,113 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5E8179-6F53-4D33-8C48-FE5B604D6A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>email_verified_at</t>
-  </si>
-  <si>
-    <t>username</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Từ Ngọc Vân</t>
+  </si>
+  <si>
+    <t>tungocvan@gmail.com</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>is_admin</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>birthdate</t>
-  </si>
-  <si>
-    <t>google_id</t>
-  </si>
-  <si>
-    <t>device_token</t>
-  </si>
-  <si>
-    <t>remember_token</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>Từ Ngọc Vân</t>
-  </si>
-  <si>
-    <t>tungocvan@gmail.com</t>
-  </si>
-  <si>
-    <t>2025-11-01 21:30:07</t>
-  </si>
-  <si>
-    <t>tungocvan</t>
-  </si>
-  <si>
-    <t>$2y$12$J.1a7JhIwxzRw3n3FHiOWOzxKpb9ynCFKYe1aHG77vrJWEYwQxcnu</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>User 01</t>
-  </si>
-  <si>
-    <t>user01@gmail.com</t>
-  </si>
-  <si>
-    <t>2025-11-01 21:30:08</t>
-  </si>
-  <si>
-    <t>user01</t>
-  </si>
-  <si>
-    <t>$2y$12$K3uVlUeD74vDKn0ZiL7WmeCMt9HBgmUu64O3tHZjmOkCFJp4XJqWu</t>
+    <t>tungocvan1@gmail.com</t>
+  </si>
+  <si>
+    <t>tungocvan2@gmail.com</t>
+  </si>
+  <si>
+    <t>vhdtshop@gmail.com</t>
+  </si>
+  <si>
+    <t>hamadaqc01@gmail.com</t>
+  </si>
+  <si>
+    <t>vansala78@gmail.com</t>
+  </si>
+  <si>
+    <t>tungocvanphp@gmail.com</t>
+  </si>
+  <si>
+    <t>tungocvansach@gmail.com</t>
+  </si>
+  <si>
+    <t>hamada220322@gmail.com</t>
+  </si>
+  <si>
+    <t>tungocvan1</t>
+  </si>
+  <si>
+    <t>tungocvan2</t>
+  </si>
+  <si>
+    <t>vhdtshop</t>
+  </si>
+  <si>
+    <t>hamadaqc01</t>
+  </si>
+  <si>
+    <t>vansala78</t>
+  </si>
+  <si>
+    <t>tungocvanphp</t>
+  </si>
+  <si>
+    <t>tungocvansach</t>
+  </si>
+  <si>
+    <t>hamada220322</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -133,39 +126,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -455,162 +436,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="true" style="0"/>
-    <col min="2" max="2" width="20" customWidth="true" style="0"/>
-    <col min="3" max="3" width="20" customWidth="true" style="0"/>
-    <col min="4" max="4" width="20" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
-    <col min="7" max="7" width="10" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6" customWidth="true" style="0"/>
-    <col min="9" max="9" width="11" customWidth="true" style="0"/>
-    <col min="10" max="10" width="11" customWidth="true" style="0"/>
-    <col min="11" max="11" width="14" customWidth="true" style="0"/>
-    <col min="12" max="12" width="16" customWidth="true" style="0"/>
-    <col min="13" max="13" width="20" customWidth="true" style="0"/>
-    <col min="14" max="14" width="20" customWidth="true" style="0"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>22</v>
+      <c r="D10">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{D5853D6C-FDE8-4A93-A980-CE8077B65D25}"/>
+    <hyperlink ref="C4:C6" r:id="rId2" display="tungocvan1@gmail.com" xr:uid="{40D3E0CC-69ED-4B12-8BF1-C1BAAFD29DDE}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{6EF00557-8D17-41E1-A919-5C3E07A464F3}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{8A06F8C1-DC65-415B-B45D-8F9E350F5557}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{47C3746D-7D78-4CBA-AAF1-54A0E29D5175}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{1E51BECE-BA99-4A8F-B3FF-BEC2E0E3C54E}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{2D05AAC4-3E07-42D1-BA1E-D87D213F7AEF}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{8B4938BE-6DD7-43DE-A1A9-90FA2FEBD9D0}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{73FF549D-563B-4FBF-950A-2911BB724154}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>